--- a/Grafik Paper tahunan.xlsx
+++ b/Grafik Paper tahunan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\College\6th Semester\Metodologi Penelitian\Pertemuan 13 (01-06-2021)\Metpen_BCI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45100C5A-B493-47F5-98DB-6A37EC448946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC50D8F-515C-44A8-BA24-EF849087B54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12060" yWindow="360" windowWidth="21600" windowHeight="11835" xr2:uid="{82CDA055-CE4B-4FAE-A40C-0254FAC6B7B2}"/>
+    <workbookView xWindow="14505" yWindow="1560" windowWidth="21600" windowHeight="11835" xr2:uid="{82CDA055-CE4B-4FAE-A40C-0254FAC6B7B2}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +71,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -97,7 +104,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -114,6 +121,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
@@ -157,7 +165,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -177,50 +185,13 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -284,6 +255,44 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -568,40 +577,40 @@
             <c:numRef>
               <c:f>All!$D$2:$D$12</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
+                <c:pt idx="0" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>1736</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>1742</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>1942</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>2076</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35</c:v>
+                  <c:v>2109</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>61</c:v>
+                  <c:v>2302</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>130</c:v>
+                  <c:v>2424</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>131</c:v>
+                  <c:v>2918</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>2173</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1189,40 +1198,40 @@
             <c:numRef>
               <c:f>All!$D$2:$D$12</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
+                <c:pt idx="0" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>1736</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>1742</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>1942</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>2076</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35</c:v>
+                  <c:v>2109</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>61</c:v>
+                  <c:v>2302</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>130</c:v>
+                  <c:v>2424</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>131</c:v>
+                  <c:v>2918</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>2173</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2619,14 +2628,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{12BFBE2E-B195-498E-944E-E8EE2EC2E235}" name="Table1" displayName="Table1" ref="A1:E13" totalsRowCount="1" headerRowDxfId="5" dataDxfId="6" dataCellStyle="Comma [0]">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{12BFBE2E-B195-498E-944E-E8EE2EC2E235}" name="Table1" displayName="Table1" ref="A1:E13" totalsRowCount="1" headerRowDxfId="11" dataDxfId="10" dataCellStyle="Comma [0]">
   <autoFilter ref="A1:E12" xr:uid="{12BFBE2E-B195-498E-944E-E8EE2EC2E235}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C10F9C85-22BB-4381-8BFB-423464498607}" name="No" totalsRowLabel="Total" dataDxfId="11" totalsRowDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{A755C43D-BF76-4075-ACD3-AABFD2F2C50E}" name="Tahun" dataDxfId="10" totalsRowDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{AD344DF3-D0B9-43B6-AAC9-BFAC2E2F046B}" name="IEEE" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="1" dataCellStyle="Comma [0]"/>
-    <tableColumn id="4" xr3:uid="{24B359CA-B066-4512-8E43-508FFABC100D}" name="Science Direct" dataDxfId="8" totalsRowDxfId="2" dataCellStyle="Comma [0]" totalsRowCellStyle="Comma [0]"/>
-    <tableColumn id="5" xr3:uid="{4CDC3ADA-8992-4258-8A41-D964CADDF7F0}" name="Google Scholar" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="0" dataCellStyle="Comma [0]"/>
+    <tableColumn id="1" xr3:uid="{C10F9C85-22BB-4381-8BFB-423464498607}" name="No" totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{A755C43D-BF76-4075-ACD3-AABFD2F2C50E}" name="Tahun" dataDxfId="8" totalsRowDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{AD344DF3-D0B9-43B6-AAC9-BFAC2E2F046B}" name="IEEE" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="2" dataCellStyle="Comma [0]"/>
+    <tableColumn id="4" xr3:uid="{24B359CA-B066-4512-8E43-508FFABC100D}" name="Science Direct" dataDxfId="6" totalsRowDxfId="1" dataCellStyle="Comma [0]"/>
+    <tableColumn id="5" xr3:uid="{4CDC3ADA-8992-4258-8A41-D964CADDF7F0}" name="Google Scholar" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="0" dataCellStyle="Comma [0]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2932,7 +2941,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2970,7 +2979,7 @@
         <v>433</v>
       </c>
       <c r="D2" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E2" s="3">
         <v>3190</v>
@@ -2986,8 +2995,8 @@
       <c r="C3" s="3">
         <v>469</v>
       </c>
-      <c r="D3" s="3">
-        <v>3</v>
+      <c r="D3" s="6">
+        <v>1736</v>
       </c>
       <c r="E3" s="3">
         <v>3550</v>
@@ -3003,8 +3012,8 @@
       <c r="C4" s="3">
         <v>650</v>
       </c>
-      <c r="D4" s="3">
-        <v>1</v>
+      <c r="D4" s="6">
+        <v>1742</v>
       </c>
       <c r="E4" s="3">
         <v>4590</v>
@@ -3020,8 +3029,8 @@
       <c r="C5" s="3">
         <v>600</v>
       </c>
-      <c r="D5" s="3">
-        <v>9</v>
+      <c r="D5" s="6">
+        <v>1942</v>
       </c>
       <c r="E5" s="3">
         <v>4800</v>
@@ -3037,8 +3046,8 @@
       <c r="C6" s="3">
         <v>708</v>
       </c>
-      <c r="D6" s="3">
-        <v>8</v>
+      <c r="D6" s="6">
+        <v>2076</v>
       </c>
       <c r="E6" s="3">
         <v>5350</v>
@@ -3054,8 +3063,8 @@
       <c r="C7" s="3">
         <v>628</v>
       </c>
-      <c r="D7" s="3">
-        <v>22</v>
+      <c r="D7" s="6">
+        <v>2000</v>
       </c>
       <c r="E7" s="3">
         <v>5600</v>
@@ -3071,8 +3080,8 @@
       <c r="C8" s="3">
         <v>722</v>
       </c>
-      <c r="D8" s="3">
-        <v>35</v>
+      <c r="D8" s="6">
+        <v>2109</v>
       </c>
       <c r="E8" s="3">
         <v>6430</v>
@@ -3088,8 +3097,8 @@
       <c r="C9" s="3">
         <v>777</v>
       </c>
-      <c r="D9" s="3">
-        <v>61</v>
+      <c r="D9" s="6">
+        <v>2302</v>
       </c>
       <c r="E9" s="3">
         <v>7270</v>
@@ -3105,8 +3114,8 @@
       <c r="C10" s="3">
         <v>896</v>
       </c>
-      <c r="D10" s="3">
-        <v>130</v>
+      <c r="D10" s="6">
+        <v>2424</v>
       </c>
       <c r="E10" s="3">
         <v>7980</v>
@@ -3122,8 +3131,8 @@
       <c r="C11" s="3">
         <v>791</v>
       </c>
-      <c r="D11" s="3">
-        <v>131</v>
+      <c r="D11" s="6">
+        <v>2918</v>
       </c>
       <c r="E11" s="3">
         <v>7980</v>
@@ -3139,8 +3148,8 @@
       <c r="C12" s="3">
         <v>307</v>
       </c>
-      <c r="D12" s="3">
-        <v>1</v>
+      <c r="D12" s="6">
+        <v>2173</v>
       </c>
       <c r="E12" s="3">
         <v>3420</v>

--- a/Grafik Paper tahunan.xlsx
+++ b/Grafik Paper tahunan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\College\6th Semester\Metodologi Penelitian\Pertemuan 13 (01-06-2021)\Metpen_BCI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC50D8F-515C-44A8-BA24-EF849087B54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E45932-0319-448C-B383-29C107F6CA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14505" yWindow="1560" windowWidth="21600" windowHeight="11835" xr2:uid="{82CDA055-CE4B-4FAE-A40C-0254FAC6B7B2}"/>
+    <workbookView xWindow="-6675" yWindow="1830" windowWidth="21600" windowHeight="11835" xr2:uid="{82CDA055-CE4B-4FAE-A40C-0254FAC6B7B2}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -115,13 +115,13 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
@@ -145,7 +145,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -165,7 +165,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -934,551 +934,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Perbandingan Paper </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>All!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>IEEE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>All!$B$2:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2021</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>All!$C$2:$C$12</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>433</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>469</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>650</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>708</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>628</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>722</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>777</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>896</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>791</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>307</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7704-4B28-AB01-E586BF4F3FA9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>All!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Science Direct</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>All!$B$2:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2021</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>All!$D$2:$D$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1736</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1742</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1942</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2076</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2109</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2302</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2424</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2918</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2173</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7704-4B28-AB01-E586BF4F3FA9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1749547504"/>
-        <c:axId val="1749547920"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1749547504"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1749547920"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1749547920"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1749547504"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2034,536 +1490,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2588,42 +1528,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34C85103-BF56-481C-8009-BA4EC137F45B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2634,8 +1538,8 @@
     <tableColumn id="1" xr3:uid="{C10F9C85-22BB-4381-8BFB-423464498607}" name="No" totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="4"/>
     <tableColumn id="2" xr3:uid="{A755C43D-BF76-4075-ACD3-AABFD2F2C50E}" name="Tahun" dataDxfId="8" totalsRowDxfId="3"/>
     <tableColumn id="3" xr3:uid="{AD344DF3-D0B9-43B6-AAC9-BFAC2E2F046B}" name="IEEE" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="2" dataCellStyle="Comma [0]"/>
-    <tableColumn id="4" xr3:uid="{24B359CA-B066-4512-8E43-508FFABC100D}" name="Science Direct" dataDxfId="6" totalsRowDxfId="1" dataCellStyle="Comma [0]"/>
-    <tableColumn id="5" xr3:uid="{4CDC3ADA-8992-4258-8A41-D964CADDF7F0}" name="Google Scholar" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="0" dataCellStyle="Comma [0]"/>
+    <tableColumn id="4" xr3:uid="{24B359CA-B066-4512-8E43-508FFABC100D}" name="Science Direct" totalsRowFunction="average" dataDxfId="6" totalsRowDxfId="0" dataCellStyle="Comma [0]"/>
+    <tableColumn id="5" xr3:uid="{4CDC3ADA-8992-4258-8A41-D964CADDF7F0}" name="Google Scholar" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="1" dataCellStyle="Comma [0]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2941,7 +1845,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2995,7 +1899,7 @@
       <c r="C3" s="3">
         <v>469</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>1736</v>
       </c>
       <c r="E3" s="3">
@@ -3012,7 +1916,7 @@
       <c r="C4" s="3">
         <v>650</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>1742</v>
       </c>
       <c r="E4" s="3">
@@ -3029,7 +1933,7 @@
       <c r="C5" s="3">
         <v>600</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>1942</v>
       </c>
       <c r="E5" s="3">
@@ -3046,7 +1950,7 @@
       <c r="C6" s="3">
         <v>708</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>2076</v>
       </c>
       <c r="E6" s="3">
@@ -3063,7 +1967,7 @@
       <c r="C7" s="3">
         <v>628</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>2000</v>
       </c>
       <c r="E7" s="3">
@@ -3080,7 +1984,7 @@
       <c r="C8" s="3">
         <v>722</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>2109</v>
       </c>
       <c r="E8" s="3">
@@ -3097,7 +2001,7 @@
       <c r="C9" s="3">
         <v>777</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>2302</v>
       </c>
       <c r="E9" s="3">
@@ -3114,7 +2018,7 @@
       <c r="C10" s="3">
         <v>896</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>2424</v>
       </c>
       <c r="E10" s="3">
@@ -3131,7 +2035,7 @@
       <c r="C11" s="3">
         <v>791</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>2918</v>
       </c>
       <c r="E11" s="3">
@@ -3148,7 +2052,7 @@
       <c r="C12" s="3">
         <v>307</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>2173</v>
       </c>
       <c r="E12" s="3">
@@ -3160,12 +2064,15 @@
         <v>5</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <f>SUBTOTAL(109,Table1[IEEE])</f>
         <v>6981</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5">
+      <c r="D13" s="6">
+        <f>SUBTOTAL(101,Table1[Science Direct])</f>
+        <v>1947.4545454545455</v>
+      </c>
+      <c r="E13" s="4">
         <f>SUBTOTAL(109,Table1[Google Scholar])</f>
         <v>60160</v>
       </c>

--- a/Grafik Paper tahunan.xlsx
+++ b/Grafik Paper tahunan.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\College\6th Semester\Metodologi Penelitian\Pertemuan 13 (01-06-2021)\Metpen_BCI\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E45932-0319-448C-B383-29C107F6CA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-6675" yWindow="1830" windowWidth="21600" windowHeight="11835" xr2:uid="{82CDA055-CE4B-4FAE-A40C-0254FAC6B7B2}"/>
+    <workbookView xWindow="-6675" yWindow="1830" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,9 +42,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -102,7 +96,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -112,10 +106,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -142,7 +136,25 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -162,30 +174,9 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -208,7 +199,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -227,7 +217,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -246,7 +235,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -271,7 +259,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -290,7 +277,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -309,7 +295,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -353,6 +339,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -361,26 +348,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -460,7 +427,7 @@
             <c:numRef>
               <c:f>All!$C$2:$C$12</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"_-;_-@_-</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>433</c:v>
@@ -499,7 +466,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0886-470E-87F0-0342BB645E70}"/>
             </c:ext>
@@ -579,7 +546,7 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
-                <c:pt idx="0" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)">
+                <c:pt idx="0" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -616,7 +583,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0886-470E-87F0-0342BB645E70}"/>
             </c:ext>
@@ -694,46 +661,46 @@
             <c:numRef>
               <c:f>All!$E$2:$E$12</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"_-;_-@_-</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>3190</c:v>
+                  <c:v>865</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3550</c:v>
+                  <c:v>968</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4590</c:v>
+                  <c:v>1040</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4800</c:v>
+                  <c:v>1050</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5350</c:v>
+                  <c:v>1080</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5600</c:v>
+                  <c:v>1110</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6430</c:v>
+                  <c:v>1210</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7270</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7980</c:v>
+                  <c:v>1150</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7980</c:v>
+                  <c:v>777</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3420</c:v>
+                  <c:v>224</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-0886-470E-87F0-0342BB645E70}"/>
             </c:ext>
@@ -747,12 +714,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2022380688"/>
-        <c:axId val="2022381936"/>
+        <c:axId val="194561152"/>
+        <c:axId val="194562688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2022380688"/>
+        <c:axId val="194561152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -795,7 +763,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2022381936"/>
+        <c:crossAx val="194562688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -803,7 +771,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2022381936"/>
+        <c:axId val="194562688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -823,7 +791,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -854,7 +822,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2022380688"/>
+        <c:crossAx val="194561152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -868,6 +836,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1510,7 +1479,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EEE0B07-9EBD-4BEB-A033-7F0423FB3B53}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5EEE0B07-9EBD-4BEB-A033-7F0423FB3B53}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1532,14 +1501,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{12BFBE2E-B195-498E-944E-E8EE2EC2E235}" name="Table1" displayName="Table1" ref="A1:E13" totalsRowCount="1" headerRowDxfId="11" dataDxfId="10" dataCellStyle="Comma [0]">
-  <autoFilter ref="A1:E12" xr:uid="{12BFBE2E-B195-498E-944E-E8EE2EC2E235}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E13" totalsRowCount="1" headerRowDxfId="11" dataDxfId="10" dataCellStyle="Comma [0]">
+  <autoFilter ref="A1:E12"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C10F9C85-22BB-4381-8BFB-423464498607}" name="No" totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{A755C43D-BF76-4075-ACD3-AABFD2F2C50E}" name="Tahun" dataDxfId="8" totalsRowDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{AD344DF3-D0B9-43B6-AAC9-BFAC2E2F046B}" name="IEEE" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="2" dataCellStyle="Comma [0]"/>
-    <tableColumn id="4" xr3:uid="{24B359CA-B066-4512-8E43-508FFABC100D}" name="Science Direct" totalsRowFunction="average" dataDxfId="6" totalsRowDxfId="0" dataCellStyle="Comma [0]"/>
-    <tableColumn id="5" xr3:uid="{4CDC3ADA-8992-4258-8A41-D964CADDF7F0}" name="Google Scholar" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="1" dataCellStyle="Comma [0]"/>
+    <tableColumn id="1" name="No" totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="4"/>
+    <tableColumn id="2" name="Tahun" dataDxfId="8" totalsRowDxfId="3"/>
+    <tableColumn id="3" name="IEEE" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="2" dataCellStyle="Comma [0]"/>
+    <tableColumn id="4" name="Science Direct" totalsRowFunction="average" dataDxfId="6" totalsRowDxfId="1" dataCellStyle="Comma [0]"/>
+    <tableColumn id="5" name="Google Scholar" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="0" dataCellStyle="Comma [0]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1588,7 +1557,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1640,7 +1609,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1834,18 +1803,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65164F8E-615F-497C-9607-6B576C190DA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1886,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="3">
-        <v>3190</v>
+        <v>865</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1903,7 +1872,7 @@
         <v>1736</v>
       </c>
       <c r="E3" s="3">
-        <v>3550</v>
+        <v>968</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1920,7 +1889,7 @@
         <v>1742</v>
       </c>
       <c r="E4" s="3">
-        <v>4590</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1937,7 +1906,7 @@
         <v>1942</v>
       </c>
       <c r="E5" s="3">
-        <v>4800</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1954,7 +1923,7 @@
         <v>2076</v>
       </c>
       <c r="E6" s="3">
-        <v>5350</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1971,7 +1940,7 @@
         <v>2000</v>
       </c>
       <c r="E7" s="3">
-        <v>5600</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1988,7 +1957,7 @@
         <v>2109</v>
       </c>
       <c r="E8" s="3">
-        <v>6430</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2005,7 +1974,7 @@
         <v>2302</v>
       </c>
       <c r="E9" s="3">
-        <v>7270</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2022,7 +1991,7 @@
         <v>2424</v>
       </c>
       <c r="E10" s="3">
-        <v>7980</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2039,7 +2008,7 @@
         <v>2918</v>
       </c>
       <c r="E11" s="3">
-        <v>7980</v>
+        <v>777</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -2056,7 +2025,7 @@
         <v>2173</v>
       </c>
       <c r="E12" s="3">
-        <v>3420</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2074,7 +2043,7 @@
       </c>
       <c r="E13" s="4">
         <f>SUBTOTAL(109,Table1[Google Scholar])</f>
-        <v>60160</v>
+        <v>10674</v>
       </c>
     </row>
   </sheetData>
